--- a/Docs/点播/表结构.xlsx
+++ b/Docs/点播/表结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,140 +534,194 @@
     <col min="2" max="2" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -675,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,79 +749,106 @@
     <col min="2" max="2" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
